--- a/results/I3_N5_M2_T15_C100_DepCentral_s1_P1_res.xlsx
+++ b/results/I3_N5_M2_T15_C100_DepCentral_s1_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2382.005728880669</v>
+        <v>839.9596863901648</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.008999824523925781</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.445908584740821</v>
+        <v>6.826797411504206</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.741951075243185</v>
+        <v>6.826797411504206</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2006.630000000002</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>354.12</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,12 +628,56 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -700,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -722,7 +766,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -802,7 +846,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -813,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -915,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.788310969284332</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -947,7 +991,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>13.91429431698742</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +999,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13.91429431698742</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +1013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1018,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1032,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1046,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1060,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1071,10 +1115,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1085,10 +1129,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1099,10 +1143,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1113,29 +1157,15 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>282.4850000000012</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>278.9800000000012</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>288.9400000000012</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10">
@@ -1271,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>286.9250000000011</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
@@ -1282,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>283.5400000000012</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12">
@@ -1293,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>40.77499999999971</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -1304,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>34.87999999999971</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -1315,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>37.77500000000089</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -1326,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>41.0149999999997</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>41.88499999999971</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
@@ -1348,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>121.8299999999988</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
@@ -1359,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>117.9799999999988</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
@@ -1370,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>105.775</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
@@ -1381,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>117.2549999999988</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1392,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>119.6049999999988</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -1403,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>155.5150000000009</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
@@ -1414,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>151.3300000000009</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -1425,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>152.0850000000009</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
@@ -1436,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>159.6700000000009</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26">
@@ -1447,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>160.0600000000009</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
@@ -1458,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>89.01500000000037</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>85.72000000000037</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>84.66500000000036</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
@@ -1491,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>89.62500000000037</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>93.42500000000037</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1513,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>282.4850000000012</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33">
@@ -1524,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>278.9800000000012</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
@@ -1535,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>288.9400000000012</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>286.9250000000011</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36">
@@ -1557,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>283.5400000000012</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
@@ -1568,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>121.8299999999988</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38">
@@ -1579,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>117.9799999999988</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39">
@@ -1590,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>105.775</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40">
@@ -1601,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>117.2549999999988</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41">
@@ -1612,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>119.6049999999988</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1689,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>182.4850000000012</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1670,7 +1700,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>178.9800000000012</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1681,7 +1711,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>188.9400000000012</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1692,7 +1722,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>186.9250000000011</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1703,7 +1733,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>183.5400000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1714,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>21.82999999999883</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
@@ -1725,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>17.97999999999884</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
@@ -1736,7 +1766,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.775000000000006</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>17.25499999999883</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -1758,7 +1788,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>19.60499999999884</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1860,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1871,7 +1901,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>10.345</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1882,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.875</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1893,7 +1923,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>10.51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1904,7 +1934,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>7.380000000000001</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1915,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1926,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1937,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1948,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1959,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1970,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>9.390000000000001</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1981,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>10.08</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1992,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>12.78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -2003,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>10.21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -2014,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>8.93</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2025,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>12.71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -2036,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>10.4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -2047,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>13.6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2058,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -2069,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>10.14</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2083,7 +2113,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2207,72 +2237,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
